--- a/Entreno3/Punto2.xlsx
+++ b/Entreno3/Punto2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Andes\7\OPTI\Github\Optimizacion\Entreno3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E439A-E338-4509-9FEA-40CE72B63BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF2E79-BAB2-4DB2-AA63-5E96180974FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{69F23D3A-E5C9-44C9-89EC-029997C37A0D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{69F23D3A-E5C9-44C9-89EC-029997C37A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacidad" sheetId="1" r:id="rId1"/>
-    <sheet name="Demanda" sheetId="2" r:id="rId2"/>
-    <sheet name="Destino" sheetId="3" r:id="rId3"/>
+    <sheet name="Sensibilidad" sheetId="4" r:id="rId2"/>
+    <sheet name="Produccion" sheetId="5" r:id="rId3"/>
+    <sheet name="Demanda" sheetId="2" r:id="rId4"/>
+    <sheet name="Destino" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Refineria</t>
   </si>
@@ -74,6 +76,33 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Insumo</t>
+  </si>
+  <si>
+    <t>Cantidad disponible</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Produccion kg</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Adulto</t>
   </si>
 </sst>
 </file>
@@ -140,11 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +493,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,10 +539,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3528BDF-336B-462E-8B86-1039A553308C}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6549A74-99B0-4955-9953-805C448E04D3}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27D918A-D545-4510-B6B3-D48FC2C698BA}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF116B10-B364-47FD-BFAB-80F855344B30}">
   <dimension ref="A1:I40"/>
   <sheetViews>
